--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value127.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value127.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9818712282708718</v>
+        <v>0.4128389656543732</v>
       </c>
       <c r="B1">
-        <v>1.715214057577734</v>
+        <v>0.6896315217018127</v>
       </c>
       <c r="C1">
-        <v>3.842459658238717</v>
+        <v>0.8533981442451477</v>
       </c>
       <c r="D1">
-        <v>2.602757415759733</v>
+        <v>4.240665912628174</v>
       </c>
       <c r="E1">
-        <v>1.045677415196697</v>
+        <v>1.286994814872742</v>
       </c>
     </row>
   </sheetData>
